--- a/assets/example_in_big.xlsx
+++ b/assets/example_in_big.xlsx
@@ -110,16 +110,16 @@
     <t>Новостройка</t>
   </si>
   <si>
-    <t>Кипич</t>
-  </si>
-  <si>
-    <t>без отделки</t>
-  </si>
-  <si>
     <t>Да</t>
   </si>
   <si>
     <t xml:space="preserve">г. Москва, ул. Ватутина, д. </t>
+  </si>
+  <si>
+    <t>Кирпич</t>
+  </si>
+  <si>
+    <t>Без отделки</t>
   </si>
 </sst>
 </file>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="O287" sqref="O287"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -667,7 +667,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
@@ -679,20 +679,20 @@
         <v>5</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J3" s="3">
         <v>10</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L3">
         <f>1</f>
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -710,7 +710,7 @@
         <v>4</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
@@ -722,13 +722,13 @@
         <v>5</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J4" s="3">
         <v>10</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L4">
         <f>L3+1</f>
@@ -750,7 +750,7 @@
         <v>4</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3">
         <v>2</v>
@@ -762,13 +762,13 @@
         <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="3">
         <v>10</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L5">
         <f t="shared" ref="L5:L68" si="1">L4+1</f>
@@ -790,7 +790,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F6" s="3">
         <v>2</v>
@@ -802,13 +802,13 @@
         <v>5</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" s="3">
         <v>10</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
@@ -830,7 +830,7 @@
         <v>4</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3">
         <v>2</v>
@@ -842,13 +842,13 @@
         <v>5</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" s="3">
         <v>10</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L7">
         <f t="shared" si="1"/>
@@ -870,7 +870,7 @@
         <v>4</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3">
         <v>2</v>
@@ -882,13 +882,13 @@
         <v>5</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="3">
         <v>10</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L8">
         <f t="shared" si="1"/>
@@ -910,7 +910,7 @@
         <v>4</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3">
         <v>2</v>
@@ -922,13 +922,13 @@
         <v>5</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="3">
         <v>10</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L9">
         <f t="shared" si="1"/>
@@ -950,7 +950,7 @@
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F10" s="3">
         <v>2</v>
@@ -962,13 +962,13 @@
         <v>5</v>
       </c>
       <c r="I10" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J10" s="3">
         <v>10</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L10">
         <f t="shared" si="1"/>
@@ -990,7 +990,7 @@
         <v>4</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F11" s="3">
         <v>2</v>
@@ -1002,13 +1002,13 @@
         <v>5</v>
       </c>
       <c r="I11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J11" s="3">
         <v>10</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L11">
         <f t="shared" si="1"/>
@@ -1030,7 +1030,7 @@
         <v>4</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F12" s="3">
         <v>2</v>
@@ -1042,13 +1042,13 @@
         <v>5</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J12" s="3">
         <v>10</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L12">
         <f t="shared" si="1"/>
@@ -1070,7 +1070,7 @@
         <v>4</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F13" s="3">
         <v>2</v>
@@ -1082,13 +1082,13 @@
         <v>5</v>
       </c>
       <c r="I13" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J13" s="3">
         <v>10</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L13">
         <f t="shared" si="1"/>
@@ -1110,7 +1110,7 @@
         <v>4</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F14" s="3">
         <v>2</v>
@@ -1122,13 +1122,13 @@
         <v>5</v>
       </c>
       <c r="I14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J14" s="3">
         <v>10</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L14">
         <f t="shared" si="1"/>
@@ -1150,7 +1150,7 @@
         <v>4</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F15" s="3">
         <v>2</v>
@@ -1162,13 +1162,13 @@
         <v>5</v>
       </c>
       <c r="I15" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J15" s="3">
         <v>10</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L15">
         <f t="shared" si="1"/>
@@ -1190,7 +1190,7 @@
         <v>4</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F16" s="3">
         <v>2</v>
@@ -1202,13 +1202,13 @@
         <v>5</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J16" s="3">
         <v>10</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L16">
         <f t="shared" si="1"/>
@@ -1230,7 +1230,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F17" s="3">
         <v>2</v>
@@ -1242,13 +1242,13 @@
         <v>5</v>
       </c>
       <c r="I17" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J17" s="3">
         <v>10</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L17">
         <f t="shared" si="1"/>
@@ -1270,7 +1270,7 @@
         <v>4</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="3">
         <v>2</v>
@@ -1282,13 +1282,13 @@
         <v>5</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J18" s="3">
         <v>10</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L18">
         <f t="shared" si="1"/>
@@ -1310,7 +1310,7 @@
         <v>4</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="3">
         <v>2</v>
@@ -1322,13 +1322,13 @@
         <v>5</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J19" s="3">
         <v>10</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L19">
         <f t="shared" si="1"/>
@@ -1350,7 +1350,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F20" s="3">
         <v>2</v>
@@ -1362,13 +1362,13 @@
         <v>5</v>
       </c>
       <c r="I20" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J20" s="3">
         <v>10</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L20">
         <f t="shared" si="1"/>
@@ -1390,7 +1390,7 @@
         <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" s="3">
         <v>2</v>
@@ -1402,13 +1402,13 @@
         <v>5</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J21" s="3">
         <v>10</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L21">
         <f t="shared" si="1"/>
@@ -1430,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F22" s="3">
         <v>2</v>
@@ -1442,13 +1442,13 @@
         <v>5</v>
       </c>
       <c r="I22" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J22" s="3">
         <v>10</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L22">
         <f t="shared" si="1"/>
@@ -1470,7 +1470,7 @@
         <v>4</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F23" s="3">
         <v>2</v>
@@ -1482,13 +1482,13 @@
         <v>5</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J23" s="3">
         <v>10</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L23">
         <f t="shared" si="1"/>
@@ -1510,7 +1510,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F24" s="3">
         <v>2</v>
@@ -1522,13 +1522,13 @@
         <v>5</v>
       </c>
       <c r="I24" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J24" s="3">
         <v>10</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
@@ -1550,7 +1550,7 @@
         <v>5</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F25" s="3">
         <v>2</v>
@@ -1562,13 +1562,13 @@
         <v>5</v>
       </c>
       <c r="I25" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J25" s="3">
         <v>11</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L25">
         <f t="shared" si="1"/>
@@ -1590,7 +1590,7 @@
         <v>6</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F26" s="3">
         <v>2</v>
@@ -1602,13 +1602,13 @@
         <v>5</v>
       </c>
       <c r="I26" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J26" s="3">
         <v>12</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L26">
         <f t="shared" si="1"/>
@@ -1630,7 +1630,7 @@
         <v>7</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F27" s="3">
         <v>2</v>
@@ -1642,13 +1642,13 @@
         <v>5</v>
       </c>
       <c r="I27" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J27" s="3">
         <v>13</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L27">
         <f t="shared" si="1"/>
@@ -1670,7 +1670,7 @@
         <v>8</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F28" s="3">
         <v>2</v>
@@ -1682,13 +1682,13 @@
         <v>5</v>
       </c>
       <c r="I28" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J28" s="3">
         <v>14</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L28">
         <f t="shared" si="1"/>
@@ -1710,7 +1710,7 @@
         <v>9</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F29" s="3">
         <v>2</v>
@@ -1722,13 +1722,13 @@
         <v>5</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J29" s="3">
         <v>15</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L29">
         <f t="shared" si="1"/>
@@ -1750,7 +1750,7 @@
         <v>10</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F30" s="3">
         <v>2</v>
@@ -1762,13 +1762,13 @@
         <v>5</v>
       </c>
       <c r="I30" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J30" s="3">
         <v>16</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L30">
         <f t="shared" si="1"/>
@@ -1790,7 +1790,7 @@
         <v>11</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F31" s="3">
         <v>2</v>
@@ -1802,13 +1802,13 @@
         <v>5</v>
       </c>
       <c r="I31" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J31" s="3">
         <v>17</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L31">
         <f t="shared" si="1"/>
@@ -1830,7 +1830,7 @@
         <v>12</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F32" s="3">
         <v>2</v>
@@ -1842,13 +1842,13 @@
         <v>5</v>
       </c>
       <c r="I32" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J32" s="3">
         <v>18</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L32">
         <f t="shared" si="1"/>
@@ -1870,7 +1870,7 @@
         <v>13</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F33" s="3">
         <v>2</v>
@@ -1882,13 +1882,13 @@
         <v>5</v>
       </c>
       <c r="I33" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J33" s="3">
         <v>19</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L33">
         <f t="shared" si="1"/>
@@ -1910,7 +1910,7 @@
         <v>14</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F34" s="3">
         <v>2</v>
@@ -1922,13 +1922,13 @@
         <v>5</v>
       </c>
       <c r="I34" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J34" s="3">
         <v>20</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L34">
         <f t="shared" si="1"/>
@@ -1950,7 +1950,7 @@
         <v>15</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F35" s="3">
         <v>2</v>
@@ -1962,13 +1962,13 @@
         <v>5</v>
       </c>
       <c r="I35" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J35" s="3">
         <v>21</v>
       </c>
       <c r="K35" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L35">
         <f t="shared" si="1"/>
@@ -1990,7 +1990,7 @@
         <v>16</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F36" s="3">
         <v>2</v>
@@ -2002,13 +2002,13 @@
         <v>5</v>
       </c>
       <c r="I36" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J36" s="3">
         <v>22</v>
       </c>
       <c r="K36" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L36">
         <f t="shared" si="1"/>
@@ -2030,7 +2030,7 @@
         <v>17</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F37" s="3">
         <v>2</v>
@@ -2042,13 +2042,13 @@
         <v>5</v>
       </c>
       <c r="I37" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J37" s="3">
         <v>23</v>
       </c>
       <c r="K37" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L37">
         <f t="shared" si="1"/>
@@ -2070,7 +2070,7 @@
         <v>18</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F38" s="3">
         <v>2</v>
@@ -2082,13 +2082,13 @@
         <v>5</v>
       </c>
       <c r="I38" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J38" s="3">
         <v>24</v>
       </c>
       <c r="K38" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L38">
         <f t="shared" si="1"/>
@@ -2110,7 +2110,7 @@
         <v>19</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F39" s="3">
         <v>2</v>
@@ -2122,13 +2122,13 @@
         <v>5</v>
       </c>
       <c r="I39" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J39" s="3">
         <v>25</v>
       </c>
       <c r="K39" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L39">
         <f t="shared" si="1"/>
@@ -2150,7 +2150,7 @@
         <v>20</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F40" s="3">
         <v>2</v>
@@ -2162,13 +2162,13 @@
         <v>5</v>
       </c>
       <c r="I40" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J40" s="3">
         <v>26</v>
       </c>
       <c r="K40" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L40">
         <f t="shared" si="1"/>
@@ -2190,7 +2190,7 @@
         <v>21</v>
       </c>
       <c r="E41" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F41" s="3">
         <v>2</v>
@@ -2202,13 +2202,13 @@
         <v>5</v>
       </c>
       <c r="I41" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J41" s="3">
         <v>27</v>
       </c>
       <c r="K41" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L41">
         <f t="shared" si="1"/>
@@ -2230,7 +2230,7 @@
         <v>22</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F42" s="3">
         <v>2</v>
@@ -2242,13 +2242,13 @@
         <v>5</v>
       </c>
       <c r="I42" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J42" s="3">
         <v>28</v>
       </c>
       <c r="K42" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L42">
         <f t="shared" si="1"/>
@@ -2270,7 +2270,7 @@
         <v>23</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F43" s="3">
         <v>2</v>
@@ -2282,13 +2282,13 @@
         <v>5</v>
       </c>
       <c r="I43" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J43" s="3">
         <v>29</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L43">
         <f t="shared" si="1"/>
@@ -2310,7 +2310,7 @@
         <v>24</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F44" s="3">
         <v>2</v>
@@ -2322,13 +2322,13 @@
         <v>5</v>
       </c>
       <c r="I44" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J44" s="3">
         <v>30</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L44">
         <f t="shared" si="1"/>
@@ -2350,7 +2350,7 @@
         <v>25</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="3">
         <v>2</v>
@@ -2362,13 +2362,13 @@
         <v>5</v>
       </c>
       <c r="I45" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J45" s="3">
         <v>31</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L45">
         <f t="shared" si="1"/>
@@ -2390,7 +2390,7 @@
         <v>26</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F46" s="3">
         <v>2</v>
@@ -2402,13 +2402,13 @@
         <v>5</v>
       </c>
       <c r="I46" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J46" s="3">
         <v>32</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L46">
         <f t="shared" si="1"/>
@@ -2430,7 +2430,7 @@
         <v>27</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F47" s="3">
         <v>2</v>
@@ -2442,13 +2442,13 @@
         <v>5</v>
       </c>
       <c r="I47" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J47" s="3">
         <v>33</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L47">
         <f t="shared" si="1"/>
@@ -2470,7 +2470,7 @@
         <v>28</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F48" s="3">
         <v>2</v>
@@ -2482,13 +2482,13 @@
         <v>5</v>
       </c>
       <c r="I48" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J48" s="3">
         <v>34</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L48">
         <f t="shared" si="1"/>
@@ -2510,7 +2510,7 @@
         <v>29</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F49" s="3">
         <v>2</v>
@@ -2522,13 +2522,13 @@
         <v>5</v>
       </c>
       <c r="I49" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J49" s="3">
         <v>35</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L49">
         <f t="shared" si="1"/>
@@ -2550,7 +2550,7 @@
         <v>30</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F50" s="3">
         <v>2</v>
@@ -2562,13 +2562,13 @@
         <v>5</v>
       </c>
       <c r="I50" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J50" s="3">
         <v>36</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L50">
         <f t="shared" si="1"/>
@@ -2590,7 +2590,7 @@
         <v>31</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F51" s="3">
         <v>2</v>
@@ -2602,13 +2602,13 @@
         <v>5</v>
       </c>
       <c r="I51" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J51" s="3">
         <v>37</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L51">
         <f t="shared" si="1"/>
@@ -2630,7 +2630,7 @@
         <v>32</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F52" s="3">
         <v>2</v>
@@ -2642,13 +2642,13 @@
         <v>5</v>
       </c>
       <c r="I52" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J52" s="3">
         <v>38</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L52">
         <f t="shared" si="1"/>
@@ -2670,7 +2670,7 @@
         <v>33</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F53" s="3">
         <v>2</v>
@@ -2682,13 +2682,13 @@
         <v>5</v>
       </c>
       <c r="I53" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J53" s="3">
         <v>39</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L53">
         <f t="shared" si="1"/>
@@ -2710,7 +2710,7 @@
         <v>34</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F54" s="3">
         <v>2</v>
@@ -2722,13 +2722,13 @@
         <v>5</v>
       </c>
       <c r="I54" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J54" s="3">
         <v>40</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L54">
         <f t="shared" si="1"/>
@@ -2750,7 +2750,7 @@
         <v>35</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F55" s="3">
         <v>2</v>
@@ -2762,13 +2762,13 @@
         <v>5</v>
       </c>
       <c r="I55" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J55" s="3">
         <v>41</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L55">
         <f t="shared" si="1"/>
@@ -2790,7 +2790,7 @@
         <v>36</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F56" s="3">
         <v>2</v>
@@ -2802,13 +2802,13 @@
         <v>5</v>
       </c>
       <c r="I56" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J56" s="3">
         <v>42</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L56">
         <f t="shared" si="1"/>
@@ -2830,7 +2830,7 @@
         <v>37</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F57" s="3">
         <v>2</v>
@@ -2842,13 +2842,13 @@
         <v>5</v>
       </c>
       <c r="I57" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J57" s="3">
         <v>43</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L57">
         <f t="shared" si="1"/>
@@ -2870,7 +2870,7 @@
         <v>38</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F58" s="3">
         <v>2</v>
@@ -2882,13 +2882,13 @@
         <v>5</v>
       </c>
       <c r="I58" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J58" s="3">
         <v>44</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L58">
         <f t="shared" si="1"/>
@@ -2910,7 +2910,7 @@
         <v>39</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F59" s="3">
         <v>2</v>
@@ -2922,13 +2922,13 @@
         <v>5</v>
       </c>
       <c r="I59" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J59" s="3">
         <v>45</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L59">
         <f t="shared" si="1"/>
@@ -2950,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F60" s="3">
         <v>2</v>
@@ -2962,13 +2962,13 @@
         <v>5</v>
       </c>
       <c r="I60" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J60" s="3">
         <v>46</v>
       </c>
       <c r="K60" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L60">
         <f t="shared" si="1"/>
@@ -2990,7 +2990,7 @@
         <v>41</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F61" s="3">
         <v>2</v>
@@ -3002,13 +3002,13 @@
         <v>5</v>
       </c>
       <c r="I61" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J61" s="3">
         <v>47</v>
       </c>
       <c r="K61" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L61">
         <f t="shared" si="1"/>
@@ -3030,7 +3030,7 @@
         <v>42</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F62" s="3">
         <v>2</v>
@@ -3042,13 +3042,13 @@
         <v>5</v>
       </c>
       <c r="I62" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J62" s="3">
         <v>48</v>
       </c>
       <c r="K62" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L62">
         <f t="shared" si="1"/>
@@ -3070,7 +3070,7 @@
         <v>43</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F63" s="3">
         <v>2</v>
@@ -3082,13 +3082,13 @@
         <v>5</v>
       </c>
       <c r="I63" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J63" s="3">
         <v>49</v>
       </c>
       <c r="K63" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L63">
         <f t="shared" si="1"/>
@@ -3110,7 +3110,7 @@
         <v>44</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F64" s="3">
         <v>2</v>
@@ -3122,13 +3122,13 @@
         <v>5</v>
       </c>
       <c r="I64" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J64" s="3">
         <v>50</v>
       </c>
       <c r="K64" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L64">
         <f t="shared" si="1"/>
@@ -3150,7 +3150,7 @@
         <v>45</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F65" s="3">
         <v>2</v>
@@ -3162,13 +3162,13 @@
         <v>5</v>
       </c>
       <c r="I65" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J65" s="3">
         <v>51</v>
       </c>
       <c r="K65" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L65">
         <f t="shared" si="1"/>
@@ -3190,7 +3190,7 @@
         <v>46</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F66" s="3">
         <v>2</v>
@@ -3202,13 +3202,13 @@
         <v>5</v>
       </c>
       <c r="I66" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J66" s="3">
         <v>52</v>
       </c>
       <c r="K66" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L66">
         <f t="shared" si="1"/>
@@ -3230,7 +3230,7 @@
         <v>47</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F67" s="3">
         <v>2</v>
@@ -3242,13 +3242,13 @@
         <v>5</v>
       </c>
       <c r="I67" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J67" s="3">
         <v>53</v>
       </c>
       <c r="K67" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L67">
         <f t="shared" si="1"/>
@@ -3270,7 +3270,7 @@
         <v>48</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F68" s="3">
         <v>2</v>
@@ -3282,13 +3282,13 @@
         <v>5</v>
       </c>
       <c r="I68" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J68" s="3">
         <v>54</v>
       </c>
       <c r="K68" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L68">
         <f t="shared" si="1"/>
@@ -3310,7 +3310,7 @@
         <v>49</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F69" s="3">
         <v>2</v>
@@ -3322,13 +3322,13 @@
         <v>5</v>
       </c>
       <c r="I69" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J69" s="3">
         <v>55</v>
       </c>
       <c r="K69" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L69">
         <f t="shared" ref="L69:L132" si="3">L68+1</f>
@@ -3350,7 +3350,7 @@
         <v>50</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F70" s="3">
         <v>2</v>
@@ -3362,13 +3362,13 @@
         <v>5</v>
       </c>
       <c r="I70" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J70" s="3">
         <v>56</v>
       </c>
       <c r="K70" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L70">
         <f t="shared" si="3"/>
@@ -3390,7 +3390,7 @@
         <v>51</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F71" s="3">
         <v>2</v>
@@ -3402,13 +3402,13 @@
         <v>5</v>
       </c>
       <c r="I71" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J71" s="3">
         <v>57</v>
       </c>
       <c r="K71" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L71">
         <f t="shared" si="3"/>
@@ -3430,7 +3430,7 @@
         <v>52</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F72" s="3">
         <v>2</v>
@@ -3442,13 +3442,13 @@
         <v>5</v>
       </c>
       <c r="I72" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J72" s="3">
         <v>58</v>
       </c>
       <c r="K72" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L72">
         <f t="shared" si="3"/>
@@ -3470,7 +3470,7 @@
         <v>53</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F73" s="3">
         <v>2</v>
@@ -3482,13 +3482,13 @@
         <v>5</v>
       </c>
       <c r="I73" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J73" s="3">
         <v>59</v>
       </c>
       <c r="K73" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L73">
         <f t="shared" si="3"/>
@@ -3510,7 +3510,7 @@
         <v>54</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F74" s="3">
         <v>2</v>
@@ -3522,13 +3522,13 @@
         <v>5</v>
       </c>
       <c r="I74" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J74" s="3">
         <v>60</v>
       </c>
       <c r="K74" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L74">
         <f t="shared" si="3"/>
@@ -3550,7 +3550,7 @@
         <v>55</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F75" s="3">
         <v>2</v>
@@ -3562,13 +3562,13 @@
         <v>5</v>
       </c>
       <c r="I75" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J75" s="3">
         <v>61</v>
       </c>
       <c r="K75" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L75">
         <f t="shared" si="3"/>
@@ -3590,7 +3590,7 @@
         <v>56</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F76" s="3">
         <v>2</v>
@@ -3602,13 +3602,13 @@
         <v>5</v>
       </c>
       <c r="I76" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J76" s="3">
         <v>62</v>
       </c>
       <c r="K76" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L76">
         <f t="shared" si="3"/>
@@ -3630,7 +3630,7 @@
         <v>57</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F77" s="3">
         <v>2</v>
@@ -3642,13 +3642,13 @@
         <v>5</v>
       </c>
       <c r="I77" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J77" s="3">
         <v>63</v>
       </c>
       <c r="K77" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L77">
         <f t="shared" si="3"/>
@@ -3670,7 +3670,7 @@
         <v>58</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F78" s="3">
         <v>2</v>
@@ -3682,13 +3682,13 @@
         <v>5</v>
       </c>
       <c r="I78" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J78" s="3">
         <v>64</v>
       </c>
       <c r="K78" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L78">
         <f t="shared" si="3"/>
@@ -3710,7 +3710,7 @@
         <v>59</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F79" s="3">
         <v>2</v>
@@ -3722,13 +3722,13 @@
         <v>5</v>
       </c>
       <c r="I79" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J79" s="3">
         <v>65</v>
       </c>
       <c r="K79" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L79">
         <f t="shared" si="3"/>
@@ -3750,7 +3750,7 @@
         <v>60</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F80" s="3">
         <v>2</v>
@@ -3762,13 +3762,13 @@
         <v>5</v>
       </c>
       <c r="I80" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J80" s="3">
         <v>66</v>
       </c>
       <c r="K80" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L80">
         <f t="shared" si="3"/>
@@ -3790,7 +3790,7 @@
         <v>61</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F81" s="3">
         <v>2</v>
@@ -3802,13 +3802,13 @@
         <v>5</v>
       </c>
       <c r="I81" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J81" s="3">
         <v>67</v>
       </c>
       <c r="K81" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L81">
         <f t="shared" si="3"/>
@@ -3830,7 +3830,7 @@
         <v>62</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F82" s="3">
         <v>2</v>
@@ -3842,13 +3842,13 @@
         <v>5</v>
       </c>
       <c r="I82" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J82" s="3">
         <v>68</v>
       </c>
       <c r="K82" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L82">
         <f t="shared" si="3"/>
@@ -3870,7 +3870,7 @@
         <v>63</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F83" s="3">
         <v>2</v>
@@ -3882,13 +3882,13 @@
         <v>5</v>
       </c>
       <c r="I83" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J83" s="3">
         <v>69</v>
       </c>
       <c r="K83" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L83">
         <f t="shared" si="3"/>
@@ -3910,7 +3910,7 @@
         <v>64</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F84" s="3">
         <v>2</v>
@@ -3922,13 +3922,13 @@
         <v>5</v>
       </c>
       <c r="I84" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J84" s="3">
         <v>70</v>
       </c>
       <c r="K84" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L84">
         <f t="shared" si="3"/>
@@ -3950,7 +3950,7 @@
         <v>65</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F85" s="3">
         <v>2</v>
@@ -3962,13 +3962,13 @@
         <v>5</v>
       </c>
       <c r="I85" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J85" s="3">
         <v>71</v>
       </c>
       <c r="K85" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L85">
         <f t="shared" si="3"/>
@@ -3990,7 +3990,7 @@
         <v>66</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F86" s="3">
         <v>2</v>
@@ -4002,13 +4002,13 @@
         <v>5</v>
       </c>
       <c r="I86" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J86" s="3">
         <v>72</v>
       </c>
       <c r="K86" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L86">
         <f t="shared" si="3"/>
@@ -4030,7 +4030,7 @@
         <v>67</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F87" s="3">
         <v>2</v>
@@ -4042,13 +4042,13 @@
         <v>5</v>
       </c>
       <c r="I87" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J87" s="3">
         <v>73</v>
       </c>
       <c r="K87" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L87">
         <f t="shared" si="3"/>
@@ -4070,7 +4070,7 @@
         <v>68</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F88" s="3">
         <v>2</v>
@@ -4082,13 +4082,13 @@
         <v>5</v>
       </c>
       <c r="I88" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J88" s="3">
         <v>74</v>
       </c>
       <c r="K88" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L88">
         <f t="shared" si="3"/>
@@ -4110,7 +4110,7 @@
         <v>69</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F89" s="3">
         <v>2</v>
@@ -4122,13 +4122,13 @@
         <v>5</v>
       </c>
       <c r="I89" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J89" s="3">
         <v>75</v>
       </c>
       <c r="K89" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L89">
         <f t="shared" si="3"/>
@@ -4150,7 +4150,7 @@
         <v>70</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F90" s="3">
         <v>2</v>
@@ -4162,13 +4162,13 @@
         <v>5</v>
       </c>
       <c r="I90" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J90" s="3">
         <v>76</v>
       </c>
       <c r="K90" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L90">
         <f t="shared" si="3"/>
@@ -4190,7 +4190,7 @@
         <v>71</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F91" s="3">
         <v>2</v>
@@ -4202,13 +4202,13 @@
         <v>5</v>
       </c>
       <c r="I91" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J91" s="3">
         <v>77</v>
       </c>
       <c r="K91" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L91">
         <f t="shared" si="3"/>
@@ -4230,7 +4230,7 @@
         <v>72</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F92" s="3">
         <v>2</v>
@@ -4242,13 +4242,13 @@
         <v>5</v>
       </c>
       <c r="I92" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J92" s="3">
         <v>78</v>
       </c>
       <c r="K92" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L92">
         <f t="shared" si="3"/>
@@ -4270,7 +4270,7 @@
         <v>73</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F93" s="3">
         <v>2</v>
@@ -4282,13 +4282,13 @@
         <v>5</v>
       </c>
       <c r="I93" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J93" s="3">
         <v>79</v>
       </c>
       <c r="K93" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L93">
         <f t="shared" si="3"/>
@@ -4310,7 +4310,7 @@
         <v>74</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F94" s="3">
         <v>2</v>
@@ -4322,13 +4322,13 @@
         <v>5</v>
       </c>
       <c r="I94" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J94" s="3">
         <v>80</v>
       </c>
       <c r="K94" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L94">
         <f t="shared" si="3"/>
@@ -4350,7 +4350,7 @@
         <v>75</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F95" s="3">
         <v>2</v>
@@ -4362,13 +4362,13 @@
         <v>5</v>
       </c>
       <c r="I95" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J95" s="3">
         <v>81</v>
       </c>
       <c r="K95" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L95">
         <f t="shared" si="3"/>
@@ -4390,7 +4390,7 @@
         <v>76</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F96" s="3">
         <v>2</v>
@@ -4402,13 +4402,13 @@
         <v>5</v>
       </c>
       <c r="I96" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J96" s="3">
         <v>82</v>
       </c>
       <c r="K96" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L96">
         <f t="shared" si="3"/>
@@ -4430,7 +4430,7 @@
         <v>77</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F97" s="3">
         <v>2</v>
@@ -4442,13 +4442,13 @@
         <v>5</v>
       </c>
       <c r="I97" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J97" s="3">
         <v>83</v>
       </c>
       <c r="K97" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L97">
         <f t="shared" si="3"/>
@@ -4470,7 +4470,7 @@
         <v>78</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F98" s="3">
         <v>2</v>
@@ -4482,13 +4482,13 @@
         <v>5</v>
       </c>
       <c r="I98" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J98" s="3">
         <v>84</v>
       </c>
       <c r="K98" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L98">
         <f t="shared" si="3"/>
@@ -4510,7 +4510,7 @@
         <v>79</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F99" s="3">
         <v>2</v>
@@ -4522,13 +4522,13 @@
         <v>5</v>
       </c>
       <c r="I99" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J99" s="3">
         <v>85</v>
       </c>
       <c r="K99" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L99">
         <f t="shared" si="3"/>
@@ -4550,7 +4550,7 @@
         <v>80</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F100" s="3">
         <v>2</v>
@@ -4562,13 +4562,13 @@
         <v>5</v>
       </c>
       <c r="I100" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J100" s="3">
         <v>86</v>
       </c>
       <c r="K100" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L100">
         <f t="shared" si="3"/>
@@ -4590,7 +4590,7 @@
         <v>81</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F101" s="3">
         <v>2</v>
@@ -4602,13 +4602,13 @@
         <v>5</v>
       </c>
       <c r="I101" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J101" s="3">
         <v>87</v>
       </c>
       <c r="K101" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L101">
         <f t="shared" si="3"/>
@@ -4630,7 +4630,7 @@
         <v>82</v>
       </c>
       <c r="E102" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F102" s="3">
         <v>2</v>
@@ -4642,13 +4642,13 @@
         <v>5</v>
       </c>
       <c r="I102" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J102" s="3">
         <v>88</v>
       </c>
       <c r="K102" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L102">
         <f t="shared" si="3"/>
@@ -4670,7 +4670,7 @@
         <v>83</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F103" s="3">
         <v>2</v>
@@ -4682,13 +4682,13 @@
         <v>5</v>
       </c>
       <c r="I103" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J103" s="3">
         <v>89</v>
       </c>
       <c r="K103" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L103">
         <f t="shared" si="3"/>
@@ -4710,7 +4710,7 @@
         <v>84</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F104" s="3">
         <v>2</v>
@@ -4722,13 +4722,13 @@
         <v>5</v>
       </c>
       <c r="I104" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J104" s="3">
         <v>90</v>
       </c>
       <c r="K104" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L104">
         <f t="shared" si="3"/>
@@ -4750,7 +4750,7 @@
         <v>85</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F105" s="3">
         <v>2</v>
@@ -4762,13 +4762,13 @@
         <v>5</v>
       </c>
       <c r="I105" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J105" s="3">
         <v>91</v>
       </c>
       <c r="K105" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L105">
         <f t="shared" si="3"/>
@@ -4790,7 +4790,7 @@
         <v>86</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F106" s="3">
         <v>2</v>
@@ -4802,13 +4802,13 @@
         <v>5</v>
       </c>
       <c r="I106" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J106" s="3">
         <v>92</v>
       </c>
       <c r="K106" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L106">
         <f t="shared" si="3"/>
@@ -4830,7 +4830,7 @@
         <v>87</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F107" s="3">
         <v>2</v>
@@ -4842,13 +4842,13 @@
         <v>5</v>
       </c>
       <c r="I107" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J107" s="3">
         <v>93</v>
       </c>
       <c r="K107" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L107">
         <f t="shared" si="3"/>
@@ -4870,7 +4870,7 @@
         <v>88</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F108" s="3">
         <v>2</v>
@@ -4882,13 +4882,13 @@
         <v>5</v>
       </c>
       <c r="I108" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J108" s="3">
         <v>94</v>
       </c>
       <c r="K108" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L108">
         <f t="shared" si="3"/>
@@ -4910,7 +4910,7 @@
         <v>89</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F109" s="3">
         <v>2</v>
@@ -4922,13 +4922,13 @@
         <v>5</v>
       </c>
       <c r="I109" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J109" s="3">
         <v>95</v>
       </c>
       <c r="K109" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L109">
         <f t="shared" si="3"/>
@@ -4950,7 +4950,7 @@
         <v>90</v>
       </c>
       <c r="E110" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F110" s="3">
         <v>2</v>
@@ -4962,13 +4962,13 @@
         <v>5</v>
       </c>
       <c r="I110" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J110" s="3">
         <v>96</v>
       </c>
       <c r="K110" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L110">
         <f t="shared" si="3"/>
@@ -4990,7 +4990,7 @@
         <v>91</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F111" s="3">
         <v>2</v>
@@ -5002,13 +5002,13 @@
         <v>5</v>
       </c>
       <c r="I111" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J111" s="3">
         <v>97</v>
       </c>
       <c r="K111" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L111">
         <f t="shared" si="3"/>
@@ -5030,7 +5030,7 @@
         <v>92</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F112" s="3">
         <v>2</v>
@@ -5042,13 +5042,13 @@
         <v>5</v>
       </c>
       <c r="I112" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J112" s="3">
         <v>98</v>
       </c>
       <c r="K112" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L112">
         <f t="shared" si="3"/>
@@ -5070,7 +5070,7 @@
         <v>93</v>
       </c>
       <c r="E113" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F113" s="3">
         <v>2</v>
@@ -5082,13 +5082,13 @@
         <v>5</v>
       </c>
       <c r="I113" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J113" s="3">
         <v>99</v>
       </c>
       <c r="K113" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L113">
         <f t="shared" si="3"/>
@@ -5110,7 +5110,7 @@
         <v>94</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F114" s="3">
         <v>2</v>
@@ -5122,13 +5122,13 @@
         <v>5</v>
       </c>
       <c r="I114" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J114" s="3">
         <v>100</v>
       </c>
       <c r="K114" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L114">
         <f t="shared" si="3"/>
@@ -5150,7 +5150,7 @@
         <v>95</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F115" s="3">
         <v>2</v>
@@ -5162,13 +5162,13 @@
         <v>5</v>
       </c>
       <c r="I115" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J115" s="3">
         <v>101</v>
       </c>
       <c r="K115" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L115">
         <f t="shared" si="3"/>
@@ -5190,7 +5190,7 @@
         <v>96</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F116" s="3">
         <v>2</v>
@@ -5202,13 +5202,13 @@
         <v>5</v>
       </c>
       <c r="I116" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J116" s="3">
         <v>102</v>
       </c>
       <c r="K116" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L116">
         <f t="shared" si="3"/>
@@ -5230,7 +5230,7 @@
         <v>97</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F117" s="3">
         <v>2</v>
@@ -5242,13 +5242,13 @@
         <v>5</v>
       </c>
       <c r="I117" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J117" s="3">
         <v>103</v>
       </c>
       <c r="K117" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L117">
         <f t="shared" si="3"/>
@@ -5270,7 +5270,7 @@
         <v>98</v>
       </c>
       <c r="E118" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F118" s="3">
         <v>2</v>
@@ -5282,13 +5282,13 @@
         <v>5</v>
       </c>
       <c r="I118" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J118" s="3">
         <v>104</v>
       </c>
       <c r="K118" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L118">
         <f t="shared" si="3"/>
@@ -5310,7 +5310,7 @@
         <v>99</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F119" s="3">
         <v>2</v>
@@ -5322,13 +5322,13 @@
         <v>5</v>
       </c>
       <c r="I119" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J119" s="3">
         <v>105</v>
       </c>
       <c r="K119" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L119">
         <f t="shared" si="3"/>
@@ -5350,7 +5350,7 @@
         <v>100</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F120" s="3">
         <v>2</v>
@@ -5362,13 +5362,13 @@
         <v>5</v>
       </c>
       <c r="I120" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J120" s="3">
         <v>106</v>
       </c>
       <c r="K120" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L120">
         <f t="shared" si="3"/>
@@ -5390,7 +5390,7 @@
         <v>101</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F121" s="3">
         <v>2</v>
@@ -5402,13 +5402,13 @@
         <v>5</v>
       </c>
       <c r="I121" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J121" s="3">
         <v>107</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L121">
         <f t="shared" si="3"/>
@@ -5430,7 +5430,7 @@
         <v>102</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F122" s="3">
         <v>2</v>
@@ -5442,13 +5442,13 @@
         <v>5</v>
       </c>
       <c r="I122" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J122" s="3">
         <v>108</v>
       </c>
       <c r="K122" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L122">
         <f t="shared" si="3"/>
@@ -5470,7 +5470,7 @@
         <v>103</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F123" s="3">
         <v>2</v>
@@ -5482,13 +5482,13 @@
         <v>5</v>
       </c>
       <c r="I123" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J123" s="3">
         <v>109</v>
       </c>
       <c r="K123" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L123">
         <f t="shared" si="3"/>
@@ -5510,7 +5510,7 @@
         <v>104</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F124" s="3">
         <v>2</v>
@@ -5522,13 +5522,13 @@
         <v>5</v>
       </c>
       <c r="I124" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J124" s="3">
         <v>110</v>
       </c>
       <c r="K124" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L124">
         <f t="shared" si="3"/>
@@ -5550,7 +5550,7 @@
         <v>105</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F125" s="3">
         <v>2</v>
@@ -5562,13 +5562,13 @@
         <v>5</v>
       </c>
       <c r="I125" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J125" s="3">
         <v>111</v>
       </c>
       <c r="K125" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L125">
         <f t="shared" si="3"/>
@@ -5590,7 +5590,7 @@
         <v>106</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F126" s="3">
         <v>2</v>
@@ -5602,13 +5602,13 @@
         <v>5</v>
       </c>
       <c r="I126" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J126" s="3">
         <v>112</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L126">
         <f t="shared" si="3"/>
@@ -5630,7 +5630,7 @@
         <v>107</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F127" s="3">
         <v>2</v>
@@ -5642,13 +5642,13 @@
         <v>5</v>
       </c>
       <c r="I127" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J127" s="3">
         <v>113</v>
       </c>
       <c r="K127" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L127">
         <f t="shared" si="3"/>
@@ -5670,7 +5670,7 @@
         <v>108</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F128" s="3">
         <v>2</v>
@@ -5682,13 +5682,13 @@
         <v>5</v>
       </c>
       <c r="I128" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J128" s="3">
         <v>114</v>
       </c>
       <c r="K128" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L128">
         <f t="shared" si="3"/>
@@ -5710,7 +5710,7 @@
         <v>109</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F129" s="3">
         <v>2</v>
@@ -5722,13 +5722,13 @@
         <v>5</v>
       </c>
       <c r="I129" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J129" s="3">
         <v>115</v>
       </c>
       <c r="K129" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L129">
         <f t="shared" si="3"/>
@@ -5750,7 +5750,7 @@
         <v>110</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F130" s="3">
         <v>2</v>
@@ -5762,13 +5762,13 @@
         <v>5</v>
       </c>
       <c r="I130" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J130" s="3">
         <v>116</v>
       </c>
       <c r="K130" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L130">
         <f t="shared" si="3"/>
@@ -5790,7 +5790,7 @@
         <v>111</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F131" s="3">
         <v>2</v>
@@ -5802,13 +5802,13 @@
         <v>5</v>
       </c>
       <c r="I131" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J131" s="3">
         <v>117</v>
       </c>
       <c r="K131" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L131">
         <f t="shared" si="3"/>
@@ -5830,7 +5830,7 @@
         <v>112</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F132" s="3">
         <v>2</v>
@@ -5842,13 +5842,13 @@
         <v>5</v>
       </c>
       <c r="I132" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J132" s="3">
         <v>118</v>
       </c>
       <c r="K132" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L132">
         <f t="shared" si="3"/>
@@ -5870,7 +5870,7 @@
         <v>113</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F133" s="3">
         <v>2</v>
@@ -5882,13 +5882,13 @@
         <v>5</v>
       </c>
       <c r="I133" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J133" s="3">
         <v>119</v>
       </c>
       <c r="K133" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L133">
         <f t="shared" ref="L133:L196" si="5">L132+1</f>
@@ -5910,7 +5910,7 @@
         <v>114</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F134" s="3">
         <v>2</v>
@@ -5922,13 +5922,13 @@
         <v>5</v>
       </c>
       <c r="I134" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J134" s="3">
         <v>120</v>
       </c>
       <c r="K134" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L134">
         <f t="shared" si="5"/>
@@ -5950,7 +5950,7 @@
         <v>115</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F135" s="3">
         <v>2</v>
@@ -5962,13 +5962,13 @@
         <v>5</v>
       </c>
       <c r="I135" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J135" s="3">
         <v>121</v>
       </c>
       <c r="K135" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L135">
         <f t="shared" si="5"/>
@@ -5990,7 +5990,7 @@
         <v>116</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F136" s="3">
         <v>2</v>
@@ -6002,13 +6002,13 @@
         <v>5</v>
       </c>
       <c r="I136" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J136" s="3">
         <v>122</v>
       </c>
       <c r="K136" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L136">
         <f t="shared" si="5"/>
@@ -6030,7 +6030,7 @@
         <v>117</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F137" s="3">
         <v>2</v>
@@ -6042,13 +6042,13 @@
         <v>5</v>
       </c>
       <c r="I137" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J137" s="3">
         <v>123</v>
       </c>
       <c r="K137" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L137">
         <f t="shared" si="5"/>
@@ -6070,7 +6070,7 @@
         <v>118</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F138" s="3">
         <v>2</v>
@@ -6082,13 +6082,13 @@
         <v>5</v>
       </c>
       <c r="I138" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J138" s="3">
         <v>124</v>
       </c>
       <c r="K138" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L138">
         <f t="shared" si="5"/>
@@ -6110,7 +6110,7 @@
         <v>119</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F139" s="3">
         <v>2</v>
@@ -6122,13 +6122,13 @@
         <v>5</v>
       </c>
       <c r="I139" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J139" s="3">
         <v>125</v>
       </c>
       <c r="K139" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L139">
         <f t="shared" si="5"/>
@@ -6150,7 +6150,7 @@
         <v>120</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F140" s="3">
         <v>2</v>
@@ -6162,13 +6162,13 @@
         <v>5</v>
       </c>
       <c r="I140" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J140" s="3">
         <v>126</v>
       </c>
       <c r="K140" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L140">
         <f t="shared" si="5"/>
@@ -6190,7 +6190,7 @@
         <v>121</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F141" s="3">
         <v>2</v>
@@ -6202,13 +6202,13 @@
         <v>5</v>
       </c>
       <c r="I141" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J141" s="3">
         <v>127</v>
       </c>
       <c r="K141" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L141">
         <f t="shared" si="5"/>
@@ -6230,7 +6230,7 @@
         <v>122</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F142" s="3">
         <v>2</v>
@@ -6242,13 +6242,13 @@
         <v>5</v>
       </c>
       <c r="I142" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J142" s="3">
         <v>128</v>
       </c>
       <c r="K142" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L142">
         <f t="shared" si="5"/>
@@ -6270,7 +6270,7 @@
         <v>123</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F143" s="3">
         <v>2</v>
@@ -6282,13 +6282,13 @@
         <v>5</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J143" s="3">
         <v>129</v>
       </c>
       <c r="K143" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L143">
         <f t="shared" si="5"/>
@@ -6310,7 +6310,7 @@
         <v>124</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F144" s="3">
         <v>2</v>
@@ -6322,13 +6322,13 @@
         <v>5</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J144" s="3">
         <v>130</v>
       </c>
       <c r="K144" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L144">
         <f t="shared" si="5"/>
@@ -6350,7 +6350,7 @@
         <v>125</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F145" s="3">
         <v>2</v>
@@ -6362,13 +6362,13 @@
         <v>5</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J145" s="3">
         <v>131</v>
       </c>
       <c r="K145" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L145">
         <f t="shared" si="5"/>
@@ -6390,7 +6390,7 @@
         <v>126</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F146" s="3">
         <v>2</v>
@@ -6402,13 +6402,13 @@
         <v>5</v>
       </c>
       <c r="I146" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J146" s="3">
         <v>132</v>
       </c>
       <c r="K146" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L146">
         <f t="shared" si="5"/>
@@ -6430,7 +6430,7 @@
         <v>127</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F147" s="3">
         <v>2</v>
@@ -6442,13 +6442,13 @@
         <v>5</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J147" s="3">
         <v>133</v>
       </c>
       <c r="K147" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L147">
         <f t="shared" si="5"/>
@@ -6470,7 +6470,7 @@
         <v>128</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F148" s="3">
         <v>2</v>
@@ -6482,13 +6482,13 @@
         <v>5</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J148" s="3">
         <v>134</v>
       </c>
       <c r="K148" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L148">
         <f t="shared" si="5"/>
@@ -6510,7 +6510,7 @@
         <v>129</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F149" s="3">
         <v>2</v>
@@ -6522,13 +6522,13 @@
         <v>5</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J149" s="3">
         <v>135</v>
       </c>
       <c r="K149" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L149">
         <f t="shared" si="5"/>
@@ -6550,7 +6550,7 @@
         <v>130</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F150" s="3">
         <v>2</v>
@@ -6562,13 +6562,13 @@
         <v>5</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J150" s="3">
         <v>136</v>
       </c>
       <c r="K150" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L150">
         <f t="shared" si="5"/>
@@ -6590,7 +6590,7 @@
         <v>131</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F151" s="3">
         <v>2</v>
@@ -6602,13 +6602,13 @@
         <v>5</v>
       </c>
       <c r="I151" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J151" s="3">
         <v>137</v>
       </c>
       <c r="K151" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L151">
         <f t="shared" si="5"/>
@@ -6630,7 +6630,7 @@
         <v>132</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F152" s="3">
         <v>2</v>
@@ -6642,13 +6642,13 @@
         <v>5</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J152" s="3">
         <v>138</v>
       </c>
       <c r="K152" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L152">
         <f t="shared" si="5"/>
@@ -6670,7 +6670,7 @@
         <v>133</v>
       </c>
       <c r="E153" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F153" s="3">
         <v>2</v>
@@ -6682,13 +6682,13 @@
         <v>5</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J153" s="3">
         <v>139</v>
       </c>
       <c r="K153" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L153">
         <f t="shared" si="5"/>
@@ -6710,7 +6710,7 @@
         <v>134</v>
       </c>
       <c r="E154" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F154" s="3">
         <v>2</v>
@@ -6722,13 +6722,13 @@
         <v>5</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J154" s="3">
         <v>140</v>
       </c>
       <c r="K154" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L154">
         <f t="shared" si="5"/>
@@ -6750,7 +6750,7 @@
         <v>135</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F155" s="3">
         <v>2</v>
@@ -6762,13 +6762,13 @@
         <v>5</v>
       </c>
       <c r="I155" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J155" s="3">
         <v>141</v>
       </c>
       <c r="K155" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L155">
         <f t="shared" si="5"/>
@@ -6790,7 +6790,7 @@
         <v>136</v>
       </c>
       <c r="E156" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F156" s="3">
         <v>2</v>
@@ -6802,13 +6802,13 @@
         <v>5</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J156" s="3">
         <v>142</v>
       </c>
       <c r="K156" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L156">
         <f t="shared" si="5"/>
@@ -6830,7 +6830,7 @@
         <v>137</v>
       </c>
       <c r="E157" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F157" s="3">
         <v>2</v>
@@ -6842,13 +6842,13 @@
         <v>5</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J157" s="3">
         <v>143</v>
       </c>
       <c r="K157" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L157">
         <f t="shared" si="5"/>
@@ -6870,7 +6870,7 @@
         <v>138</v>
       </c>
       <c r="E158" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F158" s="3">
         <v>2</v>
@@ -6882,13 +6882,13 @@
         <v>5</v>
       </c>
       <c r="I158" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J158" s="3">
         <v>144</v>
       </c>
       <c r="K158" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L158">
         <f t="shared" si="5"/>
@@ -6910,7 +6910,7 @@
         <v>139</v>
       </c>
       <c r="E159" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F159" s="3">
         <v>2</v>
@@ -6922,13 +6922,13 @@
         <v>5</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J159" s="3">
         <v>145</v>
       </c>
       <c r="K159" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L159">
         <f t="shared" si="5"/>
@@ -6950,7 +6950,7 @@
         <v>140</v>
       </c>
       <c r="E160" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F160" s="3">
         <v>2</v>
@@ -6962,13 +6962,13 @@
         <v>5</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J160" s="3">
         <v>146</v>
       </c>
       <c r="K160" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L160">
         <f t="shared" si="5"/>
@@ -6990,7 +6990,7 @@
         <v>141</v>
       </c>
       <c r="E161" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F161" s="3">
         <v>2</v>
@@ -7002,13 +7002,13 @@
         <v>5</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J161" s="3">
         <v>147</v>
       </c>
       <c r="K161" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L161">
         <f t="shared" si="5"/>
@@ -7030,7 +7030,7 @@
         <v>142</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F162" s="3">
         <v>2</v>
@@ -7042,13 +7042,13 @@
         <v>5</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J162" s="3">
         <v>148</v>
       </c>
       <c r="K162" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L162">
         <f t="shared" si="5"/>
@@ -7070,7 +7070,7 @@
         <v>143</v>
       </c>
       <c r="E163" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F163" s="3">
         <v>2</v>
@@ -7082,13 +7082,13 @@
         <v>5</v>
       </c>
       <c r="I163" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J163" s="3">
         <v>149</v>
       </c>
       <c r="K163" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L163">
         <f t="shared" si="5"/>
@@ -7110,7 +7110,7 @@
         <v>144</v>
       </c>
       <c r="E164" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F164" s="3">
         <v>2</v>
@@ -7122,13 +7122,13 @@
         <v>5</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J164" s="3">
         <v>150</v>
       </c>
       <c r="K164" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L164">
         <f t="shared" si="5"/>
@@ -7150,7 +7150,7 @@
         <v>145</v>
       </c>
       <c r="E165" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F165" s="3">
         <v>2</v>
@@ -7162,13 +7162,13 @@
         <v>5</v>
       </c>
       <c r="I165" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J165" s="3">
         <v>151</v>
       </c>
       <c r="K165" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L165">
         <f t="shared" si="5"/>
@@ -7190,7 +7190,7 @@
         <v>146</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F166" s="3">
         <v>2</v>
@@ -7202,13 +7202,13 @@
         <v>5</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J166" s="3">
         <v>152</v>
       </c>
       <c r="K166" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L166">
         <f t="shared" si="5"/>
@@ -7230,7 +7230,7 @@
         <v>147</v>
       </c>
       <c r="E167" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F167" s="3">
         <v>2</v>
@@ -7242,13 +7242,13 @@
         <v>5</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J167" s="3">
         <v>153</v>
       </c>
       <c r="K167" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L167">
         <f t="shared" si="5"/>
@@ -7270,7 +7270,7 @@
         <v>148</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F168" s="3">
         <v>2</v>
@@ -7282,13 +7282,13 @@
         <v>5</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J168" s="3">
         <v>154</v>
       </c>
       <c r="K168" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L168">
         <f t="shared" si="5"/>
@@ -7310,7 +7310,7 @@
         <v>149</v>
       </c>
       <c r="E169" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F169" s="3">
         <v>2</v>
@@ -7322,13 +7322,13 @@
         <v>5</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J169" s="3">
         <v>155</v>
       </c>
       <c r="K169" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L169">
         <f t="shared" si="5"/>
@@ -7350,7 +7350,7 @@
         <v>150</v>
       </c>
       <c r="E170" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F170" s="3">
         <v>2</v>
@@ -7362,13 +7362,13 @@
         <v>5</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J170" s="3">
         <v>156</v>
       </c>
       <c r="K170" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L170">
         <f t="shared" si="5"/>
@@ -7390,7 +7390,7 @@
         <v>151</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F171" s="3">
         <v>2</v>
@@ -7402,13 +7402,13 @@
         <v>5</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J171" s="3">
         <v>157</v>
       </c>
       <c r="K171" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L171">
         <f t="shared" si="5"/>
@@ -7430,7 +7430,7 @@
         <v>152</v>
       </c>
       <c r="E172" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F172" s="3">
         <v>2</v>
@@ -7442,13 +7442,13 @@
         <v>5</v>
       </c>
       <c r="I172" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J172" s="3">
         <v>158</v>
       </c>
       <c r="K172" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L172">
         <f t="shared" si="5"/>
@@ -7470,7 +7470,7 @@
         <v>153</v>
       </c>
       <c r="E173" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F173" s="3">
         <v>2</v>
@@ -7482,13 +7482,13 @@
         <v>5</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J173" s="3">
         <v>159</v>
       </c>
       <c r="K173" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L173">
         <f t="shared" si="5"/>
@@ -7510,7 +7510,7 @@
         <v>154</v>
       </c>
       <c r="E174" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F174" s="3">
         <v>2</v>
@@ -7522,13 +7522,13 @@
         <v>5</v>
       </c>
       <c r="I174" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J174" s="3">
         <v>160</v>
       </c>
       <c r="K174" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L174">
         <f t="shared" si="5"/>
@@ -7550,7 +7550,7 @@
         <v>155</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F175" s="3">
         <v>2</v>
@@ -7562,13 +7562,13 @@
         <v>5</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J175" s="3">
         <v>161</v>
       </c>
       <c r="K175" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L175">
         <f t="shared" si="5"/>
@@ -7590,7 +7590,7 @@
         <v>156</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F176" s="3">
         <v>2</v>
@@ -7602,13 +7602,13 @@
         <v>5</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J176" s="3">
         <v>162</v>
       </c>
       <c r="K176" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L176">
         <f t="shared" si="5"/>
@@ -7630,7 +7630,7 @@
         <v>157</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F177" s="3">
         <v>2</v>
@@ -7642,13 +7642,13 @@
         <v>5</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J177" s="3">
         <v>163</v>
       </c>
       <c r="K177" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L177">
         <f t="shared" si="5"/>
@@ -7670,7 +7670,7 @@
         <v>158</v>
       </c>
       <c r="E178" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F178" s="3">
         <v>2</v>
@@ -7682,13 +7682,13 @@
         <v>5</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J178" s="3">
         <v>164</v>
       </c>
       <c r="K178" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L178">
         <f t="shared" si="5"/>
@@ -7710,7 +7710,7 @@
         <v>159</v>
       </c>
       <c r="E179" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F179" s="3">
         <v>2</v>
@@ -7722,13 +7722,13 @@
         <v>5</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J179" s="3">
         <v>165</v>
       </c>
       <c r="K179" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L179">
         <f t="shared" si="5"/>
@@ -7750,7 +7750,7 @@
         <v>160</v>
       </c>
       <c r="E180" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F180" s="3">
         <v>2</v>
@@ -7762,13 +7762,13 @@
         <v>5</v>
       </c>
       <c r="I180" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J180" s="3">
         <v>166</v>
       </c>
       <c r="K180" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L180">
         <f t="shared" si="5"/>
@@ -7790,7 +7790,7 @@
         <v>161</v>
       </c>
       <c r="E181" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F181" s="3">
         <v>2</v>
@@ -7802,13 +7802,13 @@
         <v>5</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J181" s="3">
         <v>167</v>
       </c>
       <c r="K181" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L181">
         <f t="shared" si="5"/>
@@ -7830,7 +7830,7 @@
         <v>162</v>
       </c>
       <c r="E182" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F182" s="3">
         <v>2</v>
@@ -7842,13 +7842,13 @@
         <v>5</v>
       </c>
       <c r="I182" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J182" s="3">
         <v>168</v>
       </c>
       <c r="K182" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L182">
         <f t="shared" si="5"/>
@@ -7870,7 +7870,7 @@
         <v>163</v>
       </c>
       <c r="E183" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F183" s="3">
         <v>2</v>
@@ -7882,13 +7882,13 @@
         <v>5</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J183" s="3">
         <v>169</v>
       </c>
       <c r="K183" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L183">
         <f t="shared" si="5"/>
@@ -7910,7 +7910,7 @@
         <v>164</v>
       </c>
       <c r="E184" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F184" s="3">
         <v>2</v>
@@ -7922,13 +7922,13 @@
         <v>5</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J184" s="3">
         <v>170</v>
       </c>
       <c r="K184" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L184">
         <f t="shared" si="5"/>
@@ -7950,7 +7950,7 @@
         <v>165</v>
       </c>
       <c r="E185" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F185" s="3">
         <v>2</v>
@@ -7962,13 +7962,13 @@
         <v>5</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J185" s="3">
         <v>171</v>
       </c>
       <c r="K185" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L185">
         <f t="shared" si="5"/>
@@ -7990,7 +7990,7 @@
         <v>166</v>
       </c>
       <c r="E186" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F186" s="3">
         <v>2</v>
@@ -8002,13 +8002,13 @@
         <v>5</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J186" s="3">
         <v>172</v>
       </c>
       <c r="K186" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L186">
         <f t="shared" si="5"/>
@@ -8030,7 +8030,7 @@
         <v>167</v>
       </c>
       <c r="E187" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F187" s="3">
         <v>2</v>
@@ -8042,13 +8042,13 @@
         <v>5</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J187" s="3">
         <v>173</v>
       </c>
       <c r="K187" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L187">
         <f t="shared" si="5"/>
@@ -8070,7 +8070,7 @@
         <v>168</v>
       </c>
       <c r="E188" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F188" s="3">
         <v>2</v>
@@ -8082,13 +8082,13 @@
         <v>5</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J188" s="3">
         <v>174</v>
       </c>
       <c r="K188" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L188">
         <f t="shared" si="5"/>
@@ -8110,7 +8110,7 @@
         <v>169</v>
       </c>
       <c r="E189" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F189" s="3">
         <v>2</v>
@@ -8122,13 +8122,13 @@
         <v>5</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J189" s="3">
         <v>175</v>
       </c>
       <c r="K189" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L189">
         <f t="shared" si="5"/>
@@ -8150,7 +8150,7 @@
         <v>170</v>
       </c>
       <c r="E190" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F190" s="3">
         <v>2</v>
@@ -8162,13 +8162,13 @@
         <v>5</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J190" s="3">
         <v>176</v>
       </c>
       <c r="K190" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L190">
         <f t="shared" si="5"/>
@@ -8190,7 +8190,7 @@
         <v>171</v>
       </c>
       <c r="E191" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F191" s="3">
         <v>2</v>
@@ -8202,13 +8202,13 @@
         <v>5</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J191" s="3">
         <v>177</v>
       </c>
       <c r="K191" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L191">
         <f t="shared" si="5"/>
@@ -8230,7 +8230,7 @@
         <v>172</v>
       </c>
       <c r="E192" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F192" s="3">
         <v>2</v>
@@ -8242,13 +8242,13 @@
         <v>5</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J192" s="3">
         <v>178</v>
       </c>
       <c r="K192" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L192">
         <f t="shared" si="5"/>
@@ -8270,7 +8270,7 @@
         <v>173</v>
       </c>
       <c r="E193" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F193" s="3">
         <v>2</v>
@@ -8282,13 +8282,13 @@
         <v>5</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J193" s="3">
         <v>179</v>
       </c>
       <c r="K193" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L193">
         <f t="shared" si="5"/>
@@ -8310,7 +8310,7 @@
         <v>174</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F194" s="3">
         <v>2</v>
@@ -8322,13 +8322,13 @@
         <v>5</v>
       </c>
       <c r="I194" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J194" s="3">
         <v>180</v>
       </c>
       <c r="K194" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L194">
         <f t="shared" si="5"/>
@@ -8350,7 +8350,7 @@
         <v>175</v>
       </c>
       <c r="E195" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F195" s="3">
         <v>2</v>
@@ -8362,13 +8362,13 @@
         <v>5</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J195" s="3">
         <v>181</v>
       </c>
       <c r="K195" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L195">
         <f t="shared" si="5"/>
@@ -8390,7 +8390,7 @@
         <v>176</v>
       </c>
       <c r="E196" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F196" s="3">
         <v>2</v>
@@ -8402,13 +8402,13 @@
         <v>5</v>
       </c>
       <c r="I196" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J196" s="3">
         <v>182</v>
       </c>
       <c r="K196" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L196">
         <f t="shared" si="5"/>
@@ -8430,7 +8430,7 @@
         <v>177</v>
       </c>
       <c r="E197" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F197" s="3">
         <v>2</v>
@@ -8442,13 +8442,13 @@
         <v>5</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J197" s="3">
         <v>183</v>
       </c>
       <c r="K197" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L197">
         <f t="shared" ref="L197:L260" si="7">L196+1</f>
@@ -8470,7 +8470,7 @@
         <v>178</v>
       </c>
       <c r="E198" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F198" s="3">
         <v>2</v>
@@ -8482,13 +8482,13 @@
         <v>5</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J198" s="3">
         <v>184</v>
       </c>
       <c r="K198" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L198">
         <f t="shared" si="7"/>
@@ -8510,7 +8510,7 @@
         <v>179</v>
       </c>
       <c r="E199" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F199" s="3">
         <v>2</v>
@@ -8522,13 +8522,13 @@
         <v>5</v>
       </c>
       <c r="I199" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J199" s="3">
         <v>185</v>
       </c>
       <c r="K199" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L199">
         <f t="shared" si="7"/>
@@ -8550,7 +8550,7 @@
         <v>180</v>
       </c>
       <c r="E200" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F200" s="3">
         <v>2</v>
@@ -8562,13 +8562,13 @@
         <v>5</v>
       </c>
       <c r="I200" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J200" s="3">
         <v>186</v>
       </c>
       <c r="K200" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L200">
         <f t="shared" si="7"/>
@@ -8590,7 +8590,7 @@
         <v>181</v>
       </c>
       <c r="E201" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F201" s="3">
         <v>2</v>
@@ -8602,13 +8602,13 @@
         <v>5</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J201" s="3">
         <v>187</v>
       </c>
       <c r="K201" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L201">
         <f t="shared" si="7"/>
@@ -8630,7 +8630,7 @@
         <v>182</v>
       </c>
       <c r="E202" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F202" s="3">
         <v>2</v>
@@ -8642,13 +8642,13 @@
         <v>5</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J202" s="3">
         <v>188</v>
       </c>
       <c r="K202" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L202">
         <f t="shared" si="7"/>
@@ -8670,7 +8670,7 @@
         <v>183</v>
       </c>
       <c r="E203" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F203" s="3">
         <v>2</v>
@@ -8682,13 +8682,13 @@
         <v>5</v>
       </c>
       <c r="I203" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J203" s="3">
         <v>189</v>
       </c>
       <c r="K203" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L203">
         <f t="shared" si="7"/>
@@ -8710,7 +8710,7 @@
         <v>184</v>
       </c>
       <c r="E204" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F204" s="3">
         <v>2</v>
@@ -8722,13 +8722,13 @@
         <v>5</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J204" s="3">
         <v>190</v>
       </c>
       <c r="K204" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L204">
         <f t="shared" si="7"/>
@@ -8750,7 +8750,7 @@
         <v>185</v>
       </c>
       <c r="E205" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F205" s="3">
         <v>2</v>
@@ -8762,13 +8762,13 @@
         <v>5</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J205" s="3">
         <v>191</v>
       </c>
       <c r="K205" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L205">
         <f t="shared" si="7"/>
@@ -8790,7 +8790,7 @@
         <v>186</v>
       </c>
       <c r="E206" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F206" s="3">
         <v>2</v>
@@ -8802,13 +8802,13 @@
         <v>5</v>
       </c>
       <c r="I206" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J206" s="3">
         <v>192</v>
       </c>
       <c r="K206" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L206">
         <f t="shared" si="7"/>
@@ -8830,7 +8830,7 @@
         <v>187</v>
       </c>
       <c r="E207" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F207" s="3">
         <v>2</v>
@@ -8842,13 +8842,13 @@
         <v>5</v>
       </c>
       <c r="I207" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J207" s="3">
         <v>193</v>
       </c>
       <c r="K207" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L207">
         <f t="shared" si="7"/>
@@ -8870,7 +8870,7 @@
         <v>188</v>
       </c>
       <c r="E208" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F208" s="3">
         <v>2</v>
@@ -8882,13 +8882,13 @@
         <v>5</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J208" s="3">
         <v>194</v>
       </c>
       <c r="K208" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L208">
         <f t="shared" si="7"/>
@@ -8910,7 +8910,7 @@
         <v>189</v>
       </c>
       <c r="E209" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F209" s="3">
         <v>2</v>
@@ -8922,13 +8922,13 @@
         <v>5</v>
       </c>
       <c r="I209" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J209" s="3">
         <v>195</v>
       </c>
       <c r="K209" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L209">
         <f t="shared" si="7"/>
@@ -8950,7 +8950,7 @@
         <v>190</v>
       </c>
       <c r="E210" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F210" s="3">
         <v>2</v>
@@ -8962,13 +8962,13 @@
         <v>5</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J210" s="3">
         <v>196</v>
       </c>
       <c r="K210" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L210">
         <f t="shared" si="7"/>
@@ -8990,7 +8990,7 @@
         <v>191</v>
       </c>
       <c r="E211" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F211" s="3">
         <v>2</v>
@@ -9002,13 +9002,13 @@
         <v>5</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J211" s="3">
         <v>197</v>
       </c>
       <c r="K211" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L211">
         <f t="shared" si="7"/>
@@ -9030,7 +9030,7 @@
         <v>192</v>
       </c>
       <c r="E212" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F212" s="3">
         <v>2</v>
@@ -9042,13 +9042,13 @@
         <v>5</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J212" s="3">
         <v>198</v>
       </c>
       <c r="K212" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L212">
         <f t="shared" si="7"/>
@@ -9070,7 +9070,7 @@
         <v>193</v>
       </c>
       <c r="E213" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F213" s="3">
         <v>2</v>
@@ -9082,13 +9082,13 @@
         <v>5</v>
       </c>
       <c r="I213" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J213" s="3">
         <v>199</v>
       </c>
       <c r="K213" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L213">
         <f t="shared" si="7"/>
@@ -9110,7 +9110,7 @@
         <v>194</v>
       </c>
       <c r="E214" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F214" s="3">
         <v>2</v>
@@ -9122,13 +9122,13 @@
         <v>5</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J214" s="3">
         <v>200</v>
       </c>
       <c r="K214" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L214">
         <f t="shared" si="7"/>
@@ -9150,7 +9150,7 @@
         <v>195</v>
       </c>
       <c r="E215" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F215" s="3">
         <v>2</v>
@@ -9162,13 +9162,13 @@
         <v>5</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J215" s="3">
         <v>201</v>
       </c>
       <c r="K215" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L215">
         <f t="shared" si="7"/>
@@ -9190,7 +9190,7 @@
         <v>196</v>
       </c>
       <c r="E216" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F216" s="3">
         <v>2</v>
@@ -9202,13 +9202,13 @@
         <v>5</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J216" s="3">
         <v>202</v>
       </c>
       <c r="K216" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L216">
         <f t="shared" si="7"/>
@@ -9230,7 +9230,7 @@
         <v>197</v>
       </c>
       <c r="E217" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F217" s="3">
         <v>2</v>
@@ -9242,13 +9242,13 @@
         <v>5</v>
       </c>
       <c r="I217" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J217" s="3">
         <v>203</v>
       </c>
       <c r="K217" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L217">
         <f t="shared" si="7"/>
@@ -9270,7 +9270,7 @@
         <v>198</v>
       </c>
       <c r="E218" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F218" s="3">
         <v>2</v>
@@ -9282,13 +9282,13 @@
         <v>5</v>
       </c>
       <c r="I218" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J218" s="3">
         <v>204</v>
       </c>
       <c r="K218" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L218">
         <f t="shared" si="7"/>
@@ -9310,7 +9310,7 @@
         <v>199</v>
       </c>
       <c r="E219" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F219" s="3">
         <v>2</v>
@@ -9322,13 +9322,13 @@
         <v>5</v>
       </c>
       <c r="I219" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J219" s="3">
         <v>205</v>
       </c>
       <c r="K219" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L219">
         <f t="shared" si="7"/>
@@ -9350,7 +9350,7 @@
         <v>200</v>
       </c>
       <c r="E220" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F220" s="3">
         <v>2</v>
@@ -9362,13 +9362,13 @@
         <v>5</v>
       </c>
       <c r="I220" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J220" s="3">
         <v>206</v>
       </c>
       <c r="K220" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L220">
         <f t="shared" si="7"/>
@@ -9390,7 +9390,7 @@
         <v>201</v>
       </c>
       <c r="E221" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F221" s="3">
         <v>2</v>
@@ -9402,13 +9402,13 @@
         <v>5</v>
       </c>
       <c r="I221" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J221" s="3">
         <v>207</v>
       </c>
       <c r="K221" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L221">
         <f t="shared" si="7"/>
@@ -9430,7 +9430,7 @@
         <v>202</v>
       </c>
       <c r="E222" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F222" s="3">
         <v>2</v>
@@ -9442,13 +9442,13 @@
         <v>5</v>
       </c>
       <c r="I222" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J222" s="3">
         <v>208</v>
       </c>
       <c r="K222" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L222">
         <f t="shared" si="7"/>
@@ -9470,7 +9470,7 @@
         <v>203</v>
       </c>
       <c r="E223" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F223" s="3">
         <v>2</v>
@@ -9482,13 +9482,13 @@
         <v>5</v>
       </c>
       <c r="I223" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J223" s="3">
         <v>209</v>
       </c>
       <c r="K223" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L223">
         <f t="shared" si="7"/>
@@ -9510,7 +9510,7 @@
         <v>204</v>
       </c>
       <c r="E224" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F224" s="3">
         <v>2</v>
@@ -9522,13 +9522,13 @@
         <v>5</v>
       </c>
       <c r="I224" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J224" s="3">
         <v>210</v>
       </c>
       <c r="K224" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L224">
         <f t="shared" si="7"/>
@@ -9550,7 +9550,7 @@
         <v>205</v>
       </c>
       <c r="E225" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F225" s="3">
         <v>2</v>
@@ -9562,13 +9562,13 @@
         <v>5</v>
       </c>
       <c r="I225" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J225" s="3">
         <v>211</v>
       </c>
       <c r="K225" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L225">
         <f t="shared" si="7"/>
@@ -9590,7 +9590,7 @@
         <v>206</v>
       </c>
       <c r="E226" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F226" s="3">
         <v>2</v>
@@ -9602,13 +9602,13 @@
         <v>5</v>
       </c>
       <c r="I226" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J226" s="3">
         <v>212</v>
       </c>
       <c r="K226" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L226">
         <f t="shared" si="7"/>
@@ -9630,7 +9630,7 @@
         <v>207</v>
       </c>
       <c r="E227" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F227" s="3">
         <v>2</v>
@@ -9642,13 +9642,13 @@
         <v>5</v>
       </c>
       <c r="I227" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J227" s="3">
         <v>213</v>
       </c>
       <c r="K227" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L227">
         <f t="shared" si="7"/>
@@ -9670,7 +9670,7 @@
         <v>208</v>
       </c>
       <c r="E228" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F228" s="3">
         <v>2</v>
@@ -9682,13 +9682,13 @@
         <v>5</v>
       </c>
       <c r="I228" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J228" s="3">
         <v>214</v>
       </c>
       <c r="K228" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L228">
         <f t="shared" si="7"/>
@@ -9710,7 +9710,7 @@
         <v>209</v>
       </c>
       <c r="E229" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F229" s="3">
         <v>2</v>
@@ -9722,13 +9722,13 @@
         <v>5</v>
       </c>
       <c r="I229" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J229" s="3">
         <v>215</v>
       </c>
       <c r="K229" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L229">
         <f t="shared" si="7"/>
@@ -9750,7 +9750,7 @@
         <v>210</v>
       </c>
       <c r="E230" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F230" s="3">
         <v>2</v>
@@ -9762,13 +9762,13 @@
         <v>5</v>
       </c>
       <c r="I230" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J230" s="3">
         <v>216</v>
       </c>
       <c r="K230" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L230">
         <f t="shared" si="7"/>
@@ -9790,7 +9790,7 @@
         <v>211</v>
       </c>
       <c r="E231" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F231" s="3">
         <v>2</v>
@@ -9802,13 +9802,13 @@
         <v>5</v>
       </c>
       <c r="I231" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J231" s="3">
         <v>217</v>
       </c>
       <c r="K231" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L231">
         <f t="shared" si="7"/>
@@ -9830,7 +9830,7 @@
         <v>212</v>
       </c>
       <c r="E232" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F232" s="3">
         <v>2</v>
@@ -9842,13 +9842,13 @@
         <v>5</v>
       </c>
       <c r="I232" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J232" s="3">
         <v>218</v>
       </c>
       <c r="K232" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L232">
         <f t="shared" si="7"/>
@@ -9870,7 +9870,7 @@
         <v>213</v>
       </c>
       <c r="E233" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F233" s="3">
         <v>2</v>
@@ -9882,13 +9882,13 @@
         <v>5</v>
       </c>
       <c r="I233" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J233" s="3">
         <v>219</v>
       </c>
       <c r="K233" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L233">
         <f t="shared" si="7"/>
@@ -9910,7 +9910,7 @@
         <v>214</v>
       </c>
       <c r="E234" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F234" s="3">
         <v>2</v>
@@ -9922,13 +9922,13 @@
         <v>5</v>
       </c>
       <c r="I234" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J234" s="3">
         <v>220</v>
       </c>
       <c r="K234" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L234">
         <f t="shared" si="7"/>
@@ -9950,7 +9950,7 @@
         <v>215</v>
       </c>
       <c r="E235" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F235" s="3">
         <v>2</v>
@@ -9962,13 +9962,13 @@
         <v>5</v>
       </c>
       <c r="I235" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J235" s="3">
         <v>221</v>
       </c>
       <c r="K235" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L235">
         <f t="shared" si="7"/>
@@ -9990,7 +9990,7 @@
         <v>216</v>
       </c>
       <c r="E236" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F236" s="3">
         <v>2</v>
@@ -10002,13 +10002,13 @@
         <v>5</v>
       </c>
       <c r="I236" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J236" s="3">
         <v>222</v>
       </c>
       <c r="K236" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L236">
         <f t="shared" si="7"/>
@@ -10030,7 +10030,7 @@
         <v>217</v>
       </c>
       <c r="E237" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F237" s="3">
         <v>2</v>
@@ -10042,13 +10042,13 @@
         <v>5</v>
       </c>
       <c r="I237" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J237" s="3">
         <v>223</v>
       </c>
       <c r="K237" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L237">
         <f t="shared" si="7"/>
@@ -10070,7 +10070,7 @@
         <v>218</v>
       </c>
       <c r="E238" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F238" s="3">
         <v>2</v>
@@ -10082,13 +10082,13 @@
         <v>5</v>
       </c>
       <c r="I238" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J238" s="3">
         <v>224</v>
       </c>
       <c r="K238" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L238">
         <f t="shared" si="7"/>
@@ -10110,7 +10110,7 @@
         <v>219</v>
       </c>
       <c r="E239" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F239" s="3">
         <v>2</v>
@@ -10122,13 +10122,13 @@
         <v>5</v>
       </c>
       <c r="I239" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J239" s="3">
         <v>225</v>
       </c>
       <c r="K239" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L239">
         <f t="shared" si="7"/>
@@ -10150,7 +10150,7 @@
         <v>220</v>
       </c>
       <c r="E240" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F240" s="3">
         <v>2</v>
@@ -10162,13 +10162,13 @@
         <v>5</v>
       </c>
       <c r="I240" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J240" s="3">
         <v>226</v>
       </c>
       <c r="K240" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L240">
         <f t="shared" si="7"/>
@@ -10190,7 +10190,7 @@
         <v>221</v>
       </c>
       <c r="E241" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F241" s="3">
         <v>2</v>
@@ -10202,13 +10202,13 @@
         <v>5</v>
       </c>
       <c r="I241" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J241" s="3">
         <v>227</v>
       </c>
       <c r="K241" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L241">
         <f t="shared" si="7"/>
@@ -10230,7 +10230,7 @@
         <v>222</v>
       </c>
       <c r="E242" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F242" s="3">
         <v>2</v>
@@ -10242,13 +10242,13 @@
         <v>5</v>
       </c>
       <c r="I242" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J242" s="3">
         <v>228</v>
       </c>
       <c r="K242" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L242">
         <f t="shared" si="7"/>
@@ -10270,7 +10270,7 @@
         <v>223</v>
       </c>
       <c r="E243" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F243" s="3">
         <v>2</v>
@@ -10282,13 +10282,13 @@
         <v>5</v>
       </c>
       <c r="I243" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J243" s="3">
         <v>229</v>
       </c>
       <c r="K243" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L243">
         <f t="shared" si="7"/>
@@ -10310,7 +10310,7 @@
         <v>224</v>
       </c>
       <c r="E244" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F244" s="3">
         <v>2</v>
@@ -10322,13 +10322,13 @@
         <v>5</v>
       </c>
       <c r="I244" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J244" s="3">
         <v>230</v>
       </c>
       <c r="K244" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L244">
         <f t="shared" si="7"/>
@@ -10350,7 +10350,7 @@
         <v>225</v>
       </c>
       <c r="E245" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F245" s="3">
         <v>2</v>
@@ -10362,13 +10362,13 @@
         <v>5</v>
       </c>
       <c r="I245" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J245" s="3">
         <v>231</v>
       </c>
       <c r="K245" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L245">
         <f t="shared" si="7"/>
@@ -10390,7 +10390,7 @@
         <v>226</v>
       </c>
       <c r="E246" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F246" s="3">
         <v>2</v>
@@ -10402,13 +10402,13 @@
         <v>5</v>
       </c>
       <c r="I246" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J246" s="3">
         <v>232</v>
       </c>
       <c r="K246" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L246">
         <f t="shared" si="7"/>
@@ -10430,7 +10430,7 @@
         <v>227</v>
       </c>
       <c r="E247" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F247" s="3">
         <v>2</v>
@@ -10442,13 +10442,13 @@
         <v>5</v>
       </c>
       <c r="I247" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J247" s="3">
         <v>233</v>
       </c>
       <c r="K247" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L247">
         <f t="shared" si="7"/>
@@ -10470,7 +10470,7 @@
         <v>228</v>
       </c>
       <c r="E248" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F248" s="3">
         <v>2</v>
@@ -10482,13 +10482,13 @@
         <v>5</v>
       </c>
       <c r="I248" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J248" s="3">
         <v>234</v>
       </c>
       <c r="K248" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L248">
         <f t="shared" si="7"/>
@@ -10510,7 +10510,7 @@
         <v>229</v>
       </c>
       <c r="E249" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F249" s="3">
         <v>2</v>
@@ -10522,13 +10522,13 @@
         <v>5</v>
       </c>
       <c r="I249" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J249" s="3">
         <v>235</v>
       </c>
       <c r="K249" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L249">
         <f t="shared" si="7"/>
@@ -10550,7 +10550,7 @@
         <v>230</v>
       </c>
       <c r="E250" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F250" s="3">
         <v>2</v>
@@ -10562,13 +10562,13 @@
         <v>5</v>
       </c>
       <c r="I250" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J250" s="3">
         <v>236</v>
       </c>
       <c r="K250" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L250">
         <f t="shared" si="7"/>
@@ -10590,7 +10590,7 @@
         <v>231</v>
       </c>
       <c r="E251" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F251" s="3">
         <v>2</v>
@@ -10602,13 +10602,13 @@
         <v>5</v>
       </c>
       <c r="I251" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J251" s="3">
         <v>237</v>
       </c>
       <c r="K251" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L251">
         <f t="shared" si="7"/>
@@ -10630,7 +10630,7 @@
         <v>232</v>
       </c>
       <c r="E252" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F252" s="3">
         <v>2</v>
@@ -10642,13 +10642,13 @@
         <v>5</v>
       </c>
       <c r="I252" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J252" s="3">
         <v>238</v>
       </c>
       <c r="K252" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L252">
         <f t="shared" si="7"/>
@@ -10670,7 +10670,7 @@
         <v>233</v>
       </c>
       <c r="E253" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F253" s="3">
         <v>2</v>
@@ -10682,13 +10682,13 @@
         <v>5</v>
       </c>
       <c r="I253" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J253" s="3">
         <v>239</v>
       </c>
       <c r="K253" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L253">
         <f t="shared" si="7"/>
@@ -10710,7 +10710,7 @@
         <v>234</v>
       </c>
       <c r="E254" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F254" s="3">
         <v>2</v>
@@ -10722,13 +10722,13 @@
         <v>5</v>
       </c>
       <c r="I254" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J254" s="3">
         <v>240</v>
       </c>
       <c r="K254" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L254">
         <f t="shared" si="7"/>
@@ -10750,7 +10750,7 @@
         <v>235</v>
       </c>
       <c r="E255" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F255" s="3">
         <v>2</v>
@@ -10762,13 +10762,13 @@
         <v>5</v>
       </c>
       <c r="I255" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J255" s="3">
         <v>241</v>
       </c>
       <c r="K255" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L255">
         <f t="shared" si="7"/>
@@ -10790,7 +10790,7 @@
         <v>236</v>
       </c>
       <c r="E256" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F256" s="3">
         <v>2</v>
@@ -10802,13 +10802,13 @@
         <v>5</v>
       </c>
       <c r="I256" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J256" s="3">
         <v>242</v>
       </c>
       <c r="K256" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L256">
         <f t="shared" si="7"/>
@@ -10830,7 +10830,7 @@
         <v>237</v>
       </c>
       <c r="E257" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F257" s="3">
         <v>2</v>
@@ -10842,13 +10842,13 @@
         <v>5</v>
       </c>
       <c r="I257" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J257" s="3">
         <v>243</v>
       </c>
       <c r="K257" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L257">
         <f t="shared" si="7"/>
@@ -10870,7 +10870,7 @@
         <v>238</v>
       </c>
       <c r="E258" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F258" s="3">
         <v>2</v>
@@ -10882,13 +10882,13 @@
         <v>5</v>
       </c>
       <c r="I258" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J258" s="3">
         <v>244</v>
       </c>
       <c r="K258" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L258">
         <f t="shared" si="7"/>
@@ -10910,7 +10910,7 @@
         <v>239</v>
       </c>
       <c r="E259" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F259" s="3">
         <v>2</v>
@@ -10922,13 +10922,13 @@
         <v>5</v>
       </c>
       <c r="I259" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J259" s="3">
         <v>245</v>
       </c>
       <c r="K259" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L259">
         <f t="shared" si="7"/>
@@ -10950,7 +10950,7 @@
         <v>240</v>
       </c>
       <c r="E260" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F260" s="3">
         <v>2</v>
@@ -10962,13 +10962,13 @@
         <v>5</v>
       </c>
       <c r="I260" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J260" s="3">
         <v>246</v>
       </c>
       <c r="K260" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L260">
         <f t="shared" si="7"/>
@@ -10990,7 +10990,7 @@
         <v>241</v>
       </c>
       <c r="E261" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F261" s="3">
         <v>2</v>
@@ -11002,13 +11002,13 @@
         <v>5</v>
       </c>
       <c r="I261" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J261" s="3">
         <v>247</v>
       </c>
       <c r="K261" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L261">
         <f t="shared" ref="L261:L300" si="9">L260+1</f>
@@ -11030,7 +11030,7 @@
         <v>242</v>
       </c>
       <c r="E262" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F262" s="3">
         <v>2</v>
@@ -11042,13 +11042,13 @@
         <v>5</v>
       </c>
       <c r="I262" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J262" s="3">
         <v>248</v>
       </c>
       <c r="K262" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L262">
         <f t="shared" si="9"/>
@@ -11070,7 +11070,7 @@
         <v>243</v>
       </c>
       <c r="E263" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F263" s="3">
         <v>2</v>
@@ -11082,13 +11082,13 @@
         <v>5</v>
       </c>
       <c r="I263" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J263" s="3">
         <v>249</v>
       </c>
       <c r="K263" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L263">
         <f t="shared" si="9"/>
@@ -11110,7 +11110,7 @@
         <v>244</v>
       </c>
       <c r="E264" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F264" s="3">
         <v>2</v>
@@ -11122,13 +11122,13 @@
         <v>5</v>
       </c>
       <c r="I264" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J264" s="3">
         <v>250</v>
       </c>
       <c r="K264" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L264">
         <f t="shared" si="9"/>
@@ -11150,7 +11150,7 @@
         <v>245</v>
       </c>
       <c r="E265" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F265" s="3">
         <v>2</v>
@@ -11162,13 +11162,13 @@
         <v>5</v>
       </c>
       <c r="I265" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J265" s="3">
         <v>251</v>
       </c>
       <c r="K265" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L265">
         <f t="shared" si="9"/>
@@ -11190,7 +11190,7 @@
         <v>246</v>
       </c>
       <c r="E266" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F266" s="3">
         <v>2</v>
@@ -11202,13 +11202,13 @@
         <v>5</v>
       </c>
       <c r="I266" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J266" s="3">
         <v>252</v>
       </c>
       <c r="K266" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L266">
         <f t="shared" si="9"/>
@@ -11230,7 +11230,7 @@
         <v>247</v>
       </c>
       <c r="E267" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F267" s="3">
         <v>2</v>
@@ -11242,13 +11242,13 @@
         <v>5</v>
       </c>
       <c r="I267" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J267" s="3">
         <v>253</v>
       </c>
       <c r="K267" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L267">
         <f t="shared" si="9"/>
@@ -11270,7 +11270,7 @@
         <v>248</v>
       </c>
       <c r="E268" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F268" s="3">
         <v>2</v>
@@ -11282,13 +11282,13 @@
         <v>5</v>
       </c>
       <c r="I268" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J268" s="3">
         <v>254</v>
       </c>
       <c r="K268" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L268">
         <f t="shared" si="9"/>
@@ -11310,7 +11310,7 @@
         <v>249</v>
       </c>
       <c r="E269" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F269" s="3">
         <v>2</v>
@@ -11322,13 +11322,13 @@
         <v>5</v>
       </c>
       <c r="I269" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J269" s="3">
         <v>255</v>
       </c>
       <c r="K269" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L269">
         <f t="shared" si="9"/>
@@ -11350,7 +11350,7 @@
         <v>250</v>
       </c>
       <c r="E270" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F270" s="3">
         <v>2</v>
@@ -11362,13 +11362,13 @@
         <v>5</v>
       </c>
       <c r="I270" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J270" s="3">
         <v>256</v>
       </c>
       <c r="K270" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L270">
         <f t="shared" si="9"/>
@@ -11390,7 +11390,7 @@
         <v>251</v>
       </c>
       <c r="E271" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F271" s="3">
         <v>2</v>
@@ -11402,13 +11402,13 @@
         <v>5</v>
       </c>
       <c r="I271" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J271" s="3">
         <v>257</v>
       </c>
       <c r="K271" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L271">
         <f t="shared" si="9"/>
@@ -11430,7 +11430,7 @@
         <v>252</v>
       </c>
       <c r="E272" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F272" s="3">
         <v>2</v>
@@ -11442,13 +11442,13 @@
         <v>5</v>
       </c>
       <c r="I272" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J272" s="3">
         <v>258</v>
       </c>
       <c r="K272" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L272">
         <f t="shared" si="9"/>
@@ -11470,7 +11470,7 @@
         <v>253</v>
       </c>
       <c r="E273" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F273" s="3">
         <v>2</v>
@@ -11482,13 +11482,13 @@
         <v>5</v>
       </c>
       <c r="I273" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J273" s="3">
         <v>259</v>
       </c>
       <c r="K273" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L273">
         <f t="shared" si="9"/>
@@ -11510,7 +11510,7 @@
         <v>254</v>
       </c>
       <c r="E274" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F274" s="3">
         <v>2</v>
@@ -11522,13 +11522,13 @@
         <v>5</v>
       </c>
       <c r="I274" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J274" s="3">
         <v>260</v>
       </c>
       <c r="K274" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L274">
         <f t="shared" si="9"/>
@@ -11550,7 +11550,7 @@
         <v>255</v>
       </c>
       <c r="E275" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F275" s="3">
         <v>2</v>
@@ -11562,13 +11562,13 @@
         <v>5</v>
       </c>
       <c r="I275" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J275" s="3">
         <v>261</v>
       </c>
       <c r="K275" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L275">
         <f t="shared" si="9"/>
@@ -11590,7 +11590,7 @@
         <v>256</v>
       </c>
       <c r="E276" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F276" s="3">
         <v>2</v>
@@ -11602,13 +11602,13 @@
         <v>5</v>
       </c>
       <c r="I276" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J276" s="3">
         <v>262</v>
       </c>
       <c r="K276" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L276">
         <f t="shared" si="9"/>
@@ -11630,7 +11630,7 @@
         <v>257</v>
       </c>
       <c r="E277" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F277" s="3">
         <v>2</v>
@@ -11642,13 +11642,13 @@
         <v>5</v>
       </c>
       <c r="I277" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J277" s="3">
         <v>263</v>
       </c>
       <c r="K277" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L277">
         <f t="shared" si="9"/>
@@ -11670,7 +11670,7 @@
         <v>258</v>
       </c>
       <c r="E278" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F278" s="3">
         <v>2</v>
@@ -11682,13 +11682,13 @@
         <v>5</v>
       </c>
       <c r="I278" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J278" s="3">
         <v>264</v>
       </c>
       <c r="K278" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L278">
         <f t="shared" si="9"/>
@@ -11710,7 +11710,7 @@
         <v>259</v>
       </c>
       <c r="E279" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F279" s="3">
         <v>2</v>
@@ -11722,13 +11722,13 @@
         <v>5</v>
       </c>
       <c r="I279" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J279" s="3">
         <v>265</v>
       </c>
       <c r="K279" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L279">
         <f t="shared" si="9"/>
@@ -11750,7 +11750,7 @@
         <v>260</v>
       </c>
       <c r="E280" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F280" s="3">
         <v>2</v>
@@ -11762,13 +11762,13 @@
         <v>5</v>
       </c>
       <c r="I280" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J280" s="3">
         <v>266</v>
       </c>
       <c r="K280" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L280">
         <f t="shared" si="9"/>
@@ -11790,7 +11790,7 @@
         <v>261</v>
       </c>
       <c r="E281" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F281" s="3">
         <v>2</v>
@@ -11802,13 +11802,13 @@
         <v>5</v>
       </c>
       <c r="I281" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J281" s="3">
         <v>267</v>
       </c>
       <c r="K281" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L281">
         <f t="shared" si="9"/>
@@ -11830,7 +11830,7 @@
         <v>262</v>
       </c>
       <c r="E282" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F282" s="3">
         <v>2</v>
@@ -11842,13 +11842,13 @@
         <v>5</v>
       </c>
       <c r="I282" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J282" s="3">
         <v>268</v>
       </c>
       <c r="K282" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L282">
         <f t="shared" si="9"/>
@@ -11870,7 +11870,7 @@
         <v>263</v>
       </c>
       <c r="E283" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F283" s="3">
         <v>2</v>
@@ -11882,13 +11882,13 @@
         <v>5</v>
       </c>
       <c r="I283" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J283" s="3">
         <v>269</v>
       </c>
       <c r="K283" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L283">
         <f t="shared" si="9"/>
@@ -11910,7 +11910,7 @@
         <v>264</v>
       </c>
       <c r="E284" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F284" s="3">
         <v>2</v>
@@ -11922,13 +11922,13 @@
         <v>5</v>
       </c>
       <c r="I284" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J284" s="3">
         <v>270</v>
       </c>
       <c r="K284" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L284">
         <f t="shared" si="9"/>
@@ -11950,7 +11950,7 @@
         <v>265</v>
       </c>
       <c r="E285" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F285" s="3">
         <v>2</v>
@@ -11962,13 +11962,13 @@
         <v>5</v>
       </c>
       <c r="I285" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J285" s="3">
         <v>271</v>
       </c>
       <c r="K285" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L285">
         <f t="shared" si="9"/>
@@ -11990,7 +11990,7 @@
         <v>266</v>
       </c>
       <c r="E286" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F286" s="3">
         <v>2</v>
@@ -12002,13 +12002,13 @@
         <v>5</v>
       </c>
       <c r="I286" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J286" s="3">
         <v>272</v>
       </c>
       <c r="K286" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L286">
         <f t="shared" si="9"/>
@@ -12030,7 +12030,7 @@
         <v>267</v>
       </c>
       <c r="E287" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F287" s="3">
         <v>2</v>
@@ -12042,13 +12042,13 @@
         <v>5</v>
       </c>
       <c r="I287" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J287" s="3">
         <v>273</v>
       </c>
       <c r="K287" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L287">
         <f t="shared" si="9"/>
@@ -12070,7 +12070,7 @@
         <v>268</v>
       </c>
       <c r="E288" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F288" s="3">
         <v>2</v>
@@ -12082,13 +12082,13 @@
         <v>5</v>
       </c>
       <c r="I288" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J288" s="3">
         <v>274</v>
       </c>
       <c r="K288" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L288">
         <f t="shared" si="9"/>
@@ -12110,7 +12110,7 @@
         <v>269</v>
       </c>
       <c r="E289" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F289" s="3">
         <v>2</v>
@@ -12122,13 +12122,13 @@
         <v>5</v>
       </c>
       <c r="I289" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J289" s="3">
         <v>275</v>
       </c>
       <c r="K289" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L289">
         <f t="shared" si="9"/>
@@ -12150,7 +12150,7 @@
         <v>270</v>
       </c>
       <c r="E290" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F290" s="3">
         <v>2</v>
@@ -12162,13 +12162,13 @@
         <v>5</v>
       </c>
       <c r="I290" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J290" s="3">
         <v>276</v>
       </c>
       <c r="K290" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L290">
         <f t="shared" si="9"/>
@@ -12190,7 +12190,7 @@
         <v>271</v>
       </c>
       <c r="E291" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F291" s="3">
         <v>2</v>
@@ -12202,13 +12202,13 @@
         <v>5</v>
       </c>
       <c r="I291" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J291" s="3">
         <v>277</v>
       </c>
       <c r="K291" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L291">
         <f t="shared" si="9"/>
@@ -12230,7 +12230,7 @@
         <v>272</v>
       </c>
       <c r="E292" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F292" s="3">
         <v>2</v>
@@ -12242,13 +12242,13 @@
         <v>5</v>
       </c>
       <c r="I292" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J292" s="3">
         <v>278</v>
       </c>
       <c r="K292" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L292">
         <f t="shared" si="9"/>
@@ -12270,7 +12270,7 @@
         <v>273</v>
       </c>
       <c r="E293" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F293" s="3">
         <v>2</v>
@@ -12282,13 +12282,13 @@
         <v>5</v>
       </c>
       <c r="I293" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J293" s="3">
         <v>279</v>
       </c>
       <c r="K293" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L293">
         <f t="shared" si="9"/>
@@ -12310,7 +12310,7 @@
         <v>274</v>
       </c>
       <c r="E294" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F294" s="3">
         <v>2</v>
@@ -12322,13 +12322,13 @@
         <v>5</v>
       </c>
       <c r="I294" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J294" s="3">
         <v>280</v>
       </c>
       <c r="K294" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L294">
         <f t="shared" si="9"/>
@@ -12350,7 +12350,7 @@
         <v>275</v>
       </c>
       <c r="E295" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F295" s="3">
         <v>2</v>
@@ -12362,13 +12362,13 @@
         <v>5</v>
       </c>
       <c r="I295" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J295" s="3">
         <v>281</v>
       </c>
       <c r="K295" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L295">
         <f t="shared" si="9"/>
@@ -12390,7 +12390,7 @@
         <v>276</v>
       </c>
       <c r="E296" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F296" s="3">
         <v>2</v>
@@ -12402,13 +12402,13 @@
         <v>5</v>
       </c>
       <c r="I296" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J296" s="3">
         <v>282</v>
       </c>
       <c r="K296" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L296">
         <f t="shared" si="9"/>
@@ -12430,7 +12430,7 @@
         <v>277</v>
       </c>
       <c r="E297" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F297" s="3">
         <v>2</v>
@@ -12442,13 +12442,13 @@
         <v>5</v>
       </c>
       <c r="I297" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J297" s="3">
         <v>283</v>
       </c>
       <c r="K297" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L297">
         <f t="shared" si="9"/>
@@ -12470,7 +12470,7 @@
         <v>278</v>
       </c>
       <c r="E298" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F298" s="3">
         <v>2</v>
@@ -12482,13 +12482,13 @@
         <v>5</v>
       </c>
       <c r="I298" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J298" s="3">
         <v>284</v>
       </c>
       <c r="K298" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L298">
         <f t="shared" si="9"/>
@@ -12510,7 +12510,7 @@
         <v>279</v>
       </c>
       <c r="E299" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F299" s="3">
         <v>2</v>
@@ -12522,13 +12522,13 @@
         <v>5</v>
       </c>
       <c r="I299" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J299" s="3">
         <v>285</v>
       </c>
       <c r="K299" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L299">
         <f t="shared" si="9"/>
@@ -12550,7 +12550,7 @@
         <v>280</v>
       </c>
       <c r="E300" s="3" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F300" s="3">
         <v>2</v>
@@ -12562,13 +12562,13 @@
         <v>5</v>
       </c>
       <c r="I300" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J300" s="3">
         <v>286</v>
       </c>
       <c r="K300" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="L300">
         <f t="shared" si="9"/>
